--- a/敌人数据.xlsx
+++ b/敌人数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a_recent\作品集\项目一\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD0F53-5D0F-48BF-8586-04354A4D37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3322A06-7639-4BEE-BE74-9DA15A5769AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>特殊效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -238,6 +238,21 @@
 召唤ID4-8的敌人（召唤的敌人都消灭后，落地）（玩家打不到空中的boss）
 第三阶段（200）：怪物落地后，连续，喷火球，并持续召唤小怪，boss被击杀后，所有召唤的小怪一同死亡</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战伤害使玩家减速持续1.5s
+速度慢，会穿墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要此怪物存活，半径5的
+其他种类敌人为无敌状态，不会主动追踪玩家，自身每5秒会无敌1.5秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击不造成伤害，
+但会让玩家损失5金币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,13 +424,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1333229</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1181008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -453,13 +468,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>208713</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>109484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1345998</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>966734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -497,13 +512,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>39413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1314647</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>816653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -585,13 +600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>197725</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>139591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1335010</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>855871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -629,13 +644,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -685,13 +700,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1219509</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>782937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -741,13 +756,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>78736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>992463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -797,13 +812,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>105761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1337310</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>822041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -841,13 +856,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>40481</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>58340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2559807</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1089421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -881,6 +896,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1137285" cy="1153795"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2CC2D6-AF6B-4F4E-A612-B17A51F02AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3303065" y="2897851"/>
+          <a:ext cx="1137285" cy="1153795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>208713</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109484</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1137285" cy="857250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E008CBC-47FC-4530-B0AC-7335D7E36F19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3315834" y="8090777"/>
+          <a:ext cx="1137285" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1181,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366C832-6527-4969-8603-DF5C5D0DDFF1}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,13 +1381,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1310,248 +1399,317 @@
       <c r="H4" s="3">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3">
         <v>20</v>
       </c>
       <c r="H6" s="3">
-        <v>100</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="3">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>80</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>50</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="6">
-        <v>90</v>
+      <c r="F10" s="3">
+        <v>50</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>50</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>90</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>150</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G14" s="3">
         <v>40</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H14" s="3">
         <v>30</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="15" spans="1:10" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G15" s="3">
         <v>25</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H15" s="3">
         <v>30</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="3"/>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/敌人数据.xlsx
+++ b/敌人数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3322A06-7639-4BEE-BE74-9DA15A5769AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D9302-1308-46A5-956F-1EC32CBD9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>特殊效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,21 +83,11 @@
   </si>
   <si>
     <t>近战伤害使玩家减速持续1.5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战伤害使玩家中毒，持续3s，
-每秒2点伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>死后生发射三枚飞弹飞向玩家,
 每发飞弹10点伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度快，会从远处跳到
-玩家面前攻击，再跳离玩家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -148,11 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>死后生成几个，3秒后消失的
-掉金币小怪（小怪血量为10，速度80，乱走，不攻击）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RichElephant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,11 +180,6 @@
   </si>
   <si>
     <t>让玩家学会基本的游戏逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡后在地上留下一片尖刺，
-10s后消失，伤害为3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,11 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>近战伤害使玩家减速持续1.5s
-速度慢，会穿墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只要此怪物存活，半径5的
 其他种类敌人为无敌状态，不会主动追踪玩家，自身每5秒会无敌1.5秒</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +228,28 @@
   <si>
     <t>攻击不造成伤害，
 但会让玩家损失5金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战伤害使玩家减速持续1.5s
+为收到攻击前隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后放紫色毒物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击高，血量低，速度快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉金币小怪（小怪血量为10，速度80，乱走，不攻击）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后生成几个金兔子，3秒后消失的
+掉金币小怪（小怪血量为10，速度80，乱走，不攻击）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +306,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -327,12 +350,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,18 +377,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,13 +514,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>208713</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>109484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1345998</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>966734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,13 +558,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>39413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1314647</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>816653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -600,13 +646,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>197725</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>139591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1335010</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>855871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -644,13 +690,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -700,13 +746,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1219509</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>782937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -812,13 +858,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>105761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1337310</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>822041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -856,13 +902,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>40481</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>58340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2559807</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1089421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -939,7 +985,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>208713</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>109484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1137285" cy="857250"/>
@@ -966,6 +1012,45 @@
         <a:xfrm>
           <a:off x="3315834" y="8090777"/>
           <a:ext cx="1137285" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1137285" cy="777240"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1BF8B1-6AC9-42A9-B400-53C744324CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291623" y="6648935"/>
+          <a:ext cx="1137285" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366C832-6527-4969-8603-DF5C5D0DDFF1}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1305,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -1328,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -1346,10 +1431,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1374,18 +1459,16 @@
       <c r="H3" s="3">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1400,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
@@ -1411,27 +1494,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1440,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>6</v>
@@ -1458,21 +1542,21 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -1486,230 +1570,264 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>80</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="7">
         <v>50</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="11" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="10">
         <v>50</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="10">
         <v>50</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
-        <v>50</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="6">
-        <v>90</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>50</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>21</v>
+      <c r="I12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
-        <v>46</v>
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>90</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="15" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>150</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>40</v>
-      </c>
-      <c r="H14" s="3">
-        <v>30</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>25</v>
       </c>
       <c r="H15" s="3">
         <v>30</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
+      <c r="I15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="3"/>
+    <row r="16" spans="1:10" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>30</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/敌人数据.xlsx
+++ b/敌人数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D9302-1308-46A5-956F-1EC32CBD9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9BB61-984F-4FD0-A8A0-135AF36AFB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,52 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1060,6 +1105,25 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}" name="表1" displayName="表1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J16" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4C68CD1A-DBE2-4C5F-BE71-0B9C62D57869}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D2BFCD73-DB41-4535-B6E8-F23F3ECD6B50}" name="难度" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{AD4CA2AD-37F9-49E5-9B5A-BF3364C57127}" name="名称" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A84F9563-5465-43A1-A64F-1F767BF4D92B}" name="模型"/>
+    <tableColumn id="5" xr3:uid="{4E3180AD-7D0C-4551-A1CD-082117CBC32A}" name="死亡掉落金币" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A45A29F1-F632-47B8-AD02-74823D1FD10A}" name="血量" dataDxfId="4" dataCellStyle="差"/>
+    <tableColumn id="7" xr3:uid="{931E19B7-559B-452D-AAEF-6D6E0B24CC3C}" name="攻击" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{178D7481-DD05-4322-B5BD-35A2995802D9}" name="速度" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{415527CD-C75A-468A-AFF0-B652A8275DB0}" name="特殊效果" dataDxfId="1" dataCellStyle="差"/>
+    <tableColumn id="10" xr3:uid="{09A92433-1415-41FA-A12C-9EEB8974C55D}" name="目的"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1361,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366C832-6527-4969-8603-DF5C5D0DDFF1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1834,5 +1898,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/敌人数据.xlsx
+++ b/敌人数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9BB61-984F-4FD0-A8A0-135AF36AFB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AC28F-91CF-47D3-83FC-8D81576FF412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>特殊效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,6 +250,10 @@
   <si>
     <t>死后生成几个金兔子，3秒后消失的
 掉金币小怪（小怪血量为10，速度80，乱走，不攻击）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBunny</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,26 +413,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -450,6 +434,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1108,18 +1112,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}" name="表1" displayName="表1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}" name="表1" displayName="表1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:J16" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C68CD1A-DBE2-4C5F-BE71-0B9C62D57869}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D2BFCD73-DB41-4535-B6E8-F23F3ECD6B50}" name="难度" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AD4CA2AD-37F9-49E5-9B5A-BF3364C57127}" name="名称" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4C68CD1A-DBE2-4C5F-BE71-0B9C62D57869}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D2BFCD73-DB41-4535-B6E8-F23F3ECD6B50}" name="难度" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{AD4CA2AD-37F9-49E5-9B5A-BF3364C57127}" name="名称" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{A84F9563-5465-43A1-A64F-1F767BF4D92B}" name="模型"/>
-    <tableColumn id="5" xr3:uid="{4E3180AD-7D0C-4551-A1CD-082117CBC32A}" name="死亡掉落金币" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A45A29F1-F632-47B8-AD02-74823D1FD10A}" name="血量" dataDxfId="4" dataCellStyle="差"/>
-    <tableColumn id="7" xr3:uid="{931E19B7-559B-452D-AAEF-6D6E0B24CC3C}" name="攻击" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{178D7481-DD05-4322-B5BD-35A2995802D9}" name="速度" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{415527CD-C75A-468A-AFF0-B652A8275DB0}" name="特殊效果" dataDxfId="1" dataCellStyle="差"/>
+    <tableColumn id="5" xr3:uid="{4E3180AD-7D0C-4551-A1CD-082117CBC32A}" name="死亡掉落金币" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A45A29F1-F632-47B8-AD02-74823D1FD10A}" name="血量" dataDxfId="3" dataCellStyle="差"/>
+    <tableColumn id="7" xr3:uid="{931E19B7-559B-452D-AAEF-6D6E0B24CC3C}" name="攻击" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{178D7481-DD05-4322-B5BD-35A2995802D9}" name="速度" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{415527CD-C75A-468A-AFF0-B652A8275DB0}" name="特殊效果" dataDxfId="0" dataCellStyle="差"/>
     <tableColumn id="10" xr3:uid="{09A92433-1415-41FA-A12C-9EEB8974C55D}" name="目的"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1425,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366C832-6527-4969-8603-DF5C5D0DDFF1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -1744,7 +1748,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>50</v>

--- a/敌人数据.xlsx
+++ b/敌人数据.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AC28F-91CF-47D3-83FC-8D81576FF412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122954D-B4C5-43A2-B973-3D862CF09F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50835CD5-BF86-42E0-AB15-1B597E71E347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="关卡敌人搭配" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>特殊效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,6 +256,113 @@
   <si>
     <t>GoldBunny</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法兔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>room名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1big-比较空旷-隐身鬼专场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1small-基础操作-少怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2big -白色守护者主场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2small-白色守护者和隐身怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3big-爆炸和白守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3small-隐身怪</t>
+  </si>
+  <si>
+    <t>2.1small -狭小空地-爆炸和毒雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2small-魔法兔和爆炸熊的回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3big-格子地形-飞弹专区</t>
+  </si>
+  <si>
+    <t>2.4small-曲折弯道-爆炸和大眼</t>
   </si>
 </sst>
 </file>
@@ -327,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +450,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,13 +531,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1112,21 +1259,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}" name="表1" displayName="表1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}" name="表1" displayName="表1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:J16" xr:uid="{56F13BF2-36D7-47A0-B86E-DA78D16BE1DD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C68CD1A-DBE2-4C5F-BE71-0B9C62D57869}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D2BFCD73-DB41-4535-B6E8-F23F3ECD6B50}" name="难度" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AD4CA2AD-37F9-49E5-9B5A-BF3364C57127}" name="名称" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4C68CD1A-DBE2-4C5F-BE71-0B9C62D57869}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D2BFCD73-DB41-4535-B6E8-F23F3ECD6B50}" name="难度" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{AD4CA2AD-37F9-49E5-9B5A-BF3364C57127}" name="名称" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{A84F9563-5465-43A1-A64F-1F767BF4D92B}" name="模型"/>
-    <tableColumn id="5" xr3:uid="{4E3180AD-7D0C-4551-A1CD-082117CBC32A}" name="死亡掉落金币" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A45A29F1-F632-47B8-AD02-74823D1FD10A}" name="血量" dataDxfId="3" dataCellStyle="差"/>
-    <tableColumn id="7" xr3:uid="{931E19B7-559B-452D-AAEF-6D6E0B24CC3C}" name="攻击" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{178D7481-DD05-4322-B5BD-35A2995802D9}" name="速度" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{415527CD-C75A-468A-AFF0-B652A8275DB0}" name="特殊效果" dataDxfId="0" dataCellStyle="差"/>
+    <tableColumn id="5" xr3:uid="{4E3180AD-7D0C-4551-A1CD-082117CBC32A}" name="死亡掉落金币" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A45A29F1-F632-47B8-AD02-74823D1FD10A}" name="血量" dataDxfId="7" dataCellStyle="差"/>
+    <tableColumn id="7" xr3:uid="{931E19B7-559B-452D-AAEF-6D6E0B24CC3C}" name="攻击" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{178D7481-DD05-4322-B5BD-35A2995802D9}" name="速度" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{415527CD-C75A-468A-AFF0-B652A8275DB0}" name="特殊效果" dataDxfId="4" dataCellStyle="差"/>
     <tableColumn id="10" xr3:uid="{09A92433-1415-41FA-A12C-9EEB8974C55D}" name="目的"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21BB26A4-A27A-4FE8-8EC1-F9D7911EFDB5}" name="表3" displayName="表3" ref="A1:H19" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:H19" xr:uid="{21BB26A4-A27A-4FE8-8EC1-F9D7911EFDB5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5BEDE21A-A070-4BF8-9D4C-212675F7F408}" name="关卡序列"/>
+    <tableColumn id="8" xr3:uid="{A4A66D58-21D6-4749-8B87-303E89099709}" name="room名称"/>
+    <tableColumn id="2" xr3:uid="{4AB34921-7FC2-4768-9446-227B8C9FE976}" name="n"/>
+    <tableColumn id="3" xr3:uid="{F279556D-5C42-418C-AD3C-5D728B414DD8}" name="列3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{82B979DD-0FC7-4EA6-AC7B-BF4D891284B1}" name="s"/>
+    <tableColumn id="5" xr3:uid="{0BBB5C2E-D97A-4D76-BAE2-E755FCF17330}" name="列5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{83D7B830-9383-44A1-B511-B11D97C76CFF}" name="v"/>
+    <tableColumn id="7" xr3:uid="{79472F53-05C4-4416-B897-562B54C97734}" name="原始排序" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1429,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366C832-6527-4969-8603-DF5C5D0DDFF1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1906,4 +2073,400 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4DD8AD-D092-4606-94A8-AA6FB37EA0A7}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>